--- a/LibNMeCab45/dic/ipadic/Suffix.xlsx
+++ b/LibNMeCab45/dic/ipadic/Suffix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\USERS\ayaki\Documents\Visual Studio 2019\Projects\NMeCabSb\LibNMeCab45\dic\ipadic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D87B3DF9-837E-499A-BAE4-F564A22A192B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1639D0CC-F1D3-4353-8AA6-C663B574D294}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13954" uniqueCount="1862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14063" uniqueCount="1865">
   <si>
     <t>合</t>
   </si>
@@ -5627,6 +5627,23 @@
   </si>
   <si>
     <t>ド</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>単位</t>
+  </si>
+  <si>
+    <t>単位</t>
+    <rPh sb="0" eb="2">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>通貨</t>
+    <rPh sb="0" eb="2">
+      <t>ツウカ</t>
+    </rPh>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -6590,8 +6607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1230" workbookViewId="0">
-      <selection activeCell="A783" sqref="A783"/>
+    <sheetView tabSelected="1" topLeftCell="A979" workbookViewId="0">
+      <selection activeCell="N1021" sqref="N1021"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -34154,7 +34171,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="673" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="673" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A673" t="s">
         <v>1247</v>
       </c>
@@ -34195,7 +34212,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="674" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="674" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A674" t="s">
         <v>1841</v>
       </c>
@@ -34236,7 +34253,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="675" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="675" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A675" t="s">
         <v>1842</v>
       </c>
@@ -34277,7 +34294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="676" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="676" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A676" t="s">
         <v>1691</v>
       </c>
@@ -34318,7 +34335,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="677" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="677" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A677" t="s">
         <v>236</v>
       </c>
@@ -34359,7 +34376,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="678" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="678" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A678" t="s">
         <v>331</v>
       </c>
@@ -34400,7 +34417,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="679" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="679" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A679" t="s">
         <v>567</v>
       </c>
@@ -34441,7 +34458,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="680" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="680" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A680" t="s">
         <v>618</v>
       </c>
@@ -34482,7 +34499,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="681" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="681" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A681" t="s">
         <v>538</v>
       </c>
@@ -34523,7 +34540,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="682" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="682" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A682" t="s">
         <v>1330</v>
       </c>
@@ -34564,7 +34581,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="683" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="683" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A683" t="s">
         <v>0</v>
       </c>
@@ -34604,8 +34621,11 @@
       <c r="M683" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="684" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N683" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="684" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A684" t="s">
         <v>11</v>
       </c>
@@ -34646,7 +34666,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="685" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="685" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A685" t="s">
         <v>20</v>
       </c>
@@ -34686,8 +34706,11 @@
       <c r="M685" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="686" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N685" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="686" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A686" t="s">
         <v>24</v>
       </c>
@@ -34728,7 +34751,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="687" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="687" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A687" t="s">
         <v>27</v>
       </c>
@@ -34769,7 +34792,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="688" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="688" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A688" t="s">
         <v>30</v>
       </c>
@@ -34809,8 +34832,11 @@
       <c r="M688" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="689" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N688" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="689" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A689" t="s">
         <v>31</v>
       </c>
@@ -34851,7 +34877,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="690" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="690" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A690" t="s">
         <v>33</v>
       </c>
@@ -34892,7 +34918,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="691" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="691" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A691" t="s">
         <v>37</v>
       </c>
@@ -34933,7 +34959,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="692" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="692" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A692" t="s">
         <v>38</v>
       </c>
@@ -34974,7 +35000,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="693" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="693" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A693" t="s">
         <v>40</v>
       </c>
@@ -35015,7 +35041,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="694" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="694" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A694" t="s">
         <v>43</v>
       </c>
@@ -35056,7 +35082,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="695" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="695" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A695" t="s">
         <v>58</v>
       </c>
@@ -35097,7 +35123,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="696" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="696" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A696" t="s">
         <v>60</v>
       </c>
@@ -35138,7 +35164,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="697" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="697" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A697" t="s">
         <v>75</v>
       </c>
@@ -35179,7 +35205,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="698" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="698" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A698" t="s">
         <v>77</v>
       </c>
@@ -35220,7 +35246,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="699" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="699" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A699" t="s">
         <v>98</v>
       </c>
@@ -35261,7 +35287,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="700" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="700" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A700" t="s">
         <v>103</v>
       </c>
@@ -35302,7 +35328,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="701" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="701" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A701" t="s">
         <v>105</v>
       </c>
@@ -35343,7 +35369,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="702" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="702" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A702" t="s">
         <v>107</v>
       </c>
@@ -35383,8 +35409,11 @@
       <c r="M702" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="703" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N702" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="703" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A703" t="s">
         <v>113</v>
       </c>
@@ -35425,7 +35454,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="704" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="704" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A704" t="s">
         <v>128</v>
       </c>
@@ -35466,7 +35495,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="705" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="705" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A705" t="s">
         <v>130</v>
       </c>
@@ -35507,7 +35536,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="706" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="706" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A706" t="s">
         <v>139</v>
       </c>
@@ -35548,7 +35577,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="707" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="707" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A707" t="s">
         <v>142</v>
       </c>
@@ -35589,7 +35618,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="708" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="708" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A708" t="s">
         <v>144</v>
       </c>
@@ -35630,7 +35659,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="709" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="709" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A709" t="s">
         <v>146</v>
       </c>
@@ -35670,8 +35699,11 @@
       <c r="M709" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="710" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N709" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="710" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A710" t="s">
         <v>151</v>
       </c>
@@ -35711,8 +35743,11 @@
       <c r="M710" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="711" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N710" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="711" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A711" t="s">
         <v>165</v>
       </c>
@@ -35752,8 +35787,11 @@
       <c r="M711" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="712" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N711" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="712" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A712" t="s">
         <v>172</v>
       </c>
@@ -35794,7 +35832,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="713" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="713" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A713" t="s">
         <v>176</v>
       </c>
@@ -35835,7 +35873,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="714" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="714" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A714" t="s">
         <v>185</v>
       </c>
@@ -35876,7 +35914,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="715" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="715" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A715" t="s">
         <v>189</v>
       </c>
@@ -35917,7 +35955,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="716" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="716" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A716" t="s">
         <v>191</v>
       </c>
@@ -35957,8 +35995,11 @@
       <c r="M716" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="717" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N716" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="717" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A717" t="s">
         <v>194</v>
       </c>
@@ -35999,7 +36040,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="718" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="718" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A718" t="s">
         <v>197</v>
       </c>
@@ -36040,7 +36081,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="719" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="719" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A719" t="s">
         <v>198</v>
       </c>
@@ -36081,7 +36122,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="720" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="720" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A720" t="s">
         <v>199</v>
       </c>
@@ -36122,7 +36163,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="721" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="721" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A721" t="s">
         <v>202</v>
       </c>
@@ -36162,8 +36203,11 @@
       <c r="M721" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="722" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N721" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="722" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A722" t="s">
         <v>203</v>
       </c>
@@ -36204,7 +36248,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="723" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="723" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A723" t="s">
         <v>204</v>
       </c>
@@ -36245,7 +36289,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="724" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="724" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A724" t="s">
         <v>212</v>
       </c>
@@ -36286,7 +36330,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="725" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="725" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A725" t="s">
         <v>220</v>
       </c>
@@ -36327,7 +36371,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="726" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="726" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A726" t="s">
         <v>225</v>
       </c>
@@ -36368,7 +36412,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="727" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="727" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A727" t="s">
         <v>230</v>
       </c>
@@ -36409,7 +36453,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="728" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="728" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A728" t="s">
         <v>239</v>
       </c>
@@ -36450,7 +36494,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="729" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="729" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A729" t="s">
         <v>241</v>
       </c>
@@ -36491,7 +36535,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="730" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="730" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A730" t="s">
         <v>243</v>
       </c>
@@ -36532,7 +36576,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="731" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="731" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A731" t="s">
         <v>213</v>
       </c>
@@ -36572,8 +36616,11 @@
       <c r="M731" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="732" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N731" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="732" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A732" t="s">
         <v>253</v>
       </c>
@@ -36614,7 +36661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="733" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="733" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A733" t="s">
         <v>260</v>
       </c>
@@ -36655,7 +36702,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="734" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="734" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A734" t="s">
         <v>265</v>
       </c>
@@ -36695,8 +36742,11 @@
       <c r="M734" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="735" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N734" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="735" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A735" t="s">
         <v>270</v>
       </c>
@@ -36737,7 +36787,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="736" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="736" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A736" t="s">
         <v>274</v>
       </c>
@@ -36778,7 +36828,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="737" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="737" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A737" t="s">
         <v>276</v>
       </c>
@@ -36819,7 +36869,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="738" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="738" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A738" t="s">
         <v>280</v>
       </c>
@@ -36860,7 +36910,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="739" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="739" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A739" t="s">
         <v>283</v>
       </c>
@@ -36901,7 +36951,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="740" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="740" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A740" t="s">
         <v>286</v>
       </c>
@@ -36942,7 +36992,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="741" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="741" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A741" t="s">
         <v>288</v>
       </c>
@@ -36983,7 +37033,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="742" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="742" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A742" t="s">
         <v>290</v>
       </c>
@@ -37023,8 +37073,11 @@
       <c r="M742" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="743" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N742" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="743" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A743" t="s">
         <v>291</v>
       </c>
@@ -37065,7 +37118,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="744" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="744" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A744" t="s">
         <v>293</v>
       </c>
@@ -37105,8 +37158,11 @@
       <c r="M744" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="745" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N744" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="745" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A745" t="s">
         <v>294</v>
       </c>
@@ -37147,7 +37203,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="746" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="746" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A746" t="s">
         <v>301</v>
       </c>
@@ -37187,8 +37243,11 @@
       <c r="M746" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="747" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N746" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="747" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A747" t="s">
         <v>302</v>
       </c>
@@ -37229,7 +37288,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="748" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="748" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A748" t="s">
         <v>304</v>
       </c>
@@ -37269,8 +37328,11 @@
       <c r="M748" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="749" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N748" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="749" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A749" t="s">
         <v>307</v>
       </c>
@@ -37311,7 +37373,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="750" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="750" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A750" t="s">
         <v>308</v>
       </c>
@@ -37352,7 +37414,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="751" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="751" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A751" t="s">
         <v>310</v>
       </c>
@@ -37392,8 +37454,11 @@
       <c r="M751" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="752" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N751" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="752" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A752" t="s">
         <v>315</v>
       </c>
@@ -37434,7 +37499,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="753" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="753" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A753" t="s">
         <v>316</v>
       </c>
@@ -37475,7 +37540,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="754" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="754" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A754" t="s">
         <v>320</v>
       </c>
@@ -37516,7 +37581,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="755" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="755" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A755" t="s">
         <v>322</v>
       </c>
@@ -37557,7 +37622,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="756" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="756" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A756" t="s">
         <v>328</v>
       </c>
@@ -37598,7 +37663,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="757" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="757" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A757" t="s">
         <v>336</v>
       </c>
@@ -37639,7 +37704,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="758" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="758" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A758" t="s">
         <v>339</v>
       </c>
@@ -37680,7 +37745,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="759" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="759" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A759" t="s">
         <v>341</v>
       </c>
@@ -37720,8 +37785,11 @@
       <c r="M759" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="760" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N759" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="760" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A760" t="s">
         <v>345</v>
       </c>
@@ -37762,7 +37830,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="761" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="761" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A761" t="s">
         <v>345</v>
       </c>
@@ -37803,7 +37871,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="762" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="762" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A762" t="s">
         <v>347</v>
       </c>
@@ -37843,8 +37911,11 @@
       <c r="M762" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="763" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N762" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="763" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A763" t="s">
         <v>352</v>
       </c>
@@ -37884,8 +37955,11 @@
       <c r="M763" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="764" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N763" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="764" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A764" t="s">
         <v>363</v>
       </c>
@@ -37925,8 +37999,11 @@
       <c r="M764" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="765" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N764" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="765" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A765" t="s">
         <v>365</v>
       </c>
@@ -37967,7 +38044,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="766" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="766" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A766" t="s">
         <v>367</v>
       </c>
@@ -38008,7 +38085,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="767" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="767" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A767" t="s">
         <v>368</v>
       </c>
@@ -38048,8 +38125,11 @@
       <c r="M767" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="768" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N767" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="768" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A768" t="s">
         <v>377</v>
       </c>
@@ -38089,8 +38169,11 @@
       <c r="M768" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="769" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N768" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="769" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A769" t="s">
         <v>386</v>
       </c>
@@ -38130,8 +38213,11 @@
       <c r="M769" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="770" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N769" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="770" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A770" t="s">
         <v>389</v>
       </c>
@@ -38171,8 +38257,11 @@
       <c r="M770" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="771" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N770" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="771" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A771" t="s">
         <v>45</v>
       </c>
@@ -38213,7 +38302,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="772" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="772" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A772" t="s">
         <v>404</v>
       </c>
@@ -38254,7 +38343,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="773" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="773" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A773" t="s">
         <v>406</v>
       </c>
@@ -38294,8 +38383,11 @@
       <c r="M773" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="774" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N773" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="774" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A774" t="s">
         <v>407</v>
       </c>
@@ -38335,8 +38427,11 @@
       <c r="M774" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="775" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N774" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="775" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A775" t="s">
         <v>410</v>
       </c>
@@ -38376,8 +38471,11 @@
       <c r="M775" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="776" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N775" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="776" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A776" t="s">
         <v>411</v>
       </c>
@@ -38418,7 +38516,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="777" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="777" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A777" t="s">
         <v>418</v>
       </c>
@@ -38459,7 +38557,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="778" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="778" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A778" t="s">
         <v>421</v>
       </c>
@@ -38499,8 +38597,11 @@
       <c r="M778" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="779" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N778" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="779" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A779" t="s">
         <v>424</v>
       </c>
@@ -38541,7 +38642,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="780" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="780" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A780" t="s">
         <v>424</v>
       </c>
@@ -38582,7 +38683,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="781" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="781" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A781" t="s">
         <v>433</v>
       </c>
@@ -38622,8 +38723,11 @@
       <c r="M781" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="782" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N781" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="782" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A782" t="s">
         <v>439</v>
       </c>
@@ -38664,7 +38768,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="783" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="783" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A783" t="s">
         <v>443</v>
       </c>
@@ -38704,8 +38808,11 @@
       <c r="M783" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="784" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N783" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="784" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A784" t="s">
         <v>458</v>
       </c>
@@ -38746,7 +38853,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="785" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="785" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A785" t="s">
         <v>462</v>
       </c>
@@ -38787,7 +38894,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="786" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="786" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A786" t="s">
         <v>464</v>
       </c>
@@ -38828,7 +38935,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="787" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="787" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A787" t="s">
         <v>468</v>
       </c>
@@ -38869,7 +38976,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="788" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="788" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A788" t="s">
         <v>471</v>
       </c>
@@ -38909,8 +39016,11 @@
       <c r="M788" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="789" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N788" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="789" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A789" t="s">
         <v>474</v>
       </c>
@@ -38951,7 +39061,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="790" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="790" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A790" t="s">
         <v>476</v>
       </c>
@@ -38992,7 +39102,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="791" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="791" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A791" t="s">
         <v>481</v>
       </c>
@@ -39032,8 +39142,11 @@
       <c r="M791" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="792" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N791" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="792" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A792" t="s">
         <v>485</v>
       </c>
@@ -39074,7 +39187,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="793" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="793" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A793" t="s">
         <v>493</v>
       </c>
@@ -39115,7 +39228,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="794" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="794" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A794" t="s">
         <v>503</v>
       </c>
@@ -39156,7 +39269,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="795" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="795" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A795" t="s">
         <v>495</v>
       </c>
@@ -39197,7 +39310,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="796" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="796" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A796" t="s">
         <v>517</v>
       </c>
@@ -39237,8 +39350,11 @@
       <c r="M796" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="797" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N796" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="797" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A797" t="s">
         <v>527</v>
       </c>
@@ -39278,8 +39394,11 @@
       <c r="M797" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="798" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N797" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="798" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A798" t="s">
         <v>528</v>
       </c>
@@ -39320,7 +39439,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="799" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="799" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A799" t="s">
         <v>530</v>
       </c>
@@ -39361,7 +39480,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="800" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="800" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A800" t="s">
         <v>532</v>
       </c>
@@ -39402,7 +39521,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="801" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="801" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A801" t="s">
         <v>534</v>
       </c>
@@ -39443,7 +39562,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="802" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="802" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A802" t="s">
         <v>547</v>
       </c>
@@ -39484,7 +39603,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="803" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="803" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A803" t="s">
         <v>549</v>
       </c>
@@ -39524,8 +39643,11 @@
       <c r="M803" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="804" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N803" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="804" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A804" t="s">
         <v>553</v>
       </c>
@@ -39566,7 +39688,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="805" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="805" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A805" t="s">
         <v>555</v>
       </c>
@@ -39607,7 +39729,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="806" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="806" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A806" t="s">
         <v>557</v>
       </c>
@@ -39648,7 +39770,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="807" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="807" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A807" t="s">
         <v>565</v>
       </c>
@@ -39689,7 +39811,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="808" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="808" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A808" t="s">
         <v>568</v>
       </c>
@@ -39729,8 +39851,11 @@
       <c r="M808" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="809" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N808" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="809" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A809" t="s">
         <v>305</v>
       </c>
@@ -39770,8 +39895,11 @@
       <c r="M809" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="810" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N809" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="810" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A810" t="s">
         <v>569</v>
       </c>
@@ -39812,7 +39940,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="811" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="811" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A811" t="s">
         <v>577</v>
       </c>
@@ -39853,7 +39981,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="812" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="812" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A812" t="s">
         <v>430</v>
       </c>
@@ -39893,8 +40021,11 @@
       <c r="M812" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="813" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N812" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="813" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A813" t="s">
         <v>579</v>
       </c>
@@ -39934,8 +40065,11 @@
       <c r="M813" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="814" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N813" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="814" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A814" t="s">
         <v>582</v>
       </c>
@@ -39975,8 +40109,11 @@
       <c r="M814" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="815" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N814" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="815" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A815" t="s">
         <v>584</v>
       </c>
@@ -40017,7 +40154,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="816" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="816" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A816" t="s">
         <v>585</v>
       </c>
@@ -40057,8 +40194,11 @@
       <c r="M816" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="817" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N816" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="817" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A817" t="s">
         <v>586</v>
       </c>
@@ -40099,7 +40239,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="818" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="818" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A818" t="s">
         <v>592</v>
       </c>
@@ -40139,8 +40279,11 @@
       <c r="M818" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="819" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N818" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="819" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A819" t="s">
         <v>597</v>
       </c>
@@ -40180,8 +40323,11 @@
       <c r="M819" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="820" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N819" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="820" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A820" t="s">
         <v>598</v>
       </c>
@@ -40221,8 +40367,11 @@
       <c r="M820" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="821" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N820" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="821" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A821" t="s">
         <v>599</v>
       </c>
@@ -40263,7 +40412,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="822" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="822" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A822" t="s">
         <v>604</v>
       </c>
@@ -40303,8 +40452,11 @@
       <c r="M822" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="823" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N822" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="823" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A823" t="s">
         <v>605</v>
       </c>
@@ -40344,8 +40496,11 @@
       <c r="M823" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="824" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N823" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="824" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A824" t="s">
         <v>610</v>
       </c>
@@ -40386,7 +40541,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="825" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="825" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A825" t="s">
         <v>614</v>
       </c>
@@ -40426,8 +40581,11 @@
       <c r="M825" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="826" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N825" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="826" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A826" t="s">
         <v>620</v>
       </c>
@@ -40468,7 +40626,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="827" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="827" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A827" t="s">
         <v>626</v>
       </c>
@@ -40508,8 +40666,11 @@
       <c r="M827" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="828" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N827" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="828" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A828" t="s">
         <v>637</v>
       </c>
@@ -40549,8 +40710,11 @@
       <c r="M828" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="829" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N828" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="829" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A829" t="s">
         <v>639</v>
       </c>
@@ -40591,7 +40755,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="830" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="830" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A830" t="s">
         <v>644</v>
       </c>
@@ -40632,7 +40796,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="831" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="831" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A831" t="s">
         <v>647</v>
       </c>
@@ -40672,8 +40836,11 @@
       <c r="M831" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="832" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N831" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="832" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A832" t="s">
         <v>340</v>
       </c>
@@ -40714,7 +40881,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="833" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="833" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A833" t="s">
         <v>435</v>
       </c>
@@ -40755,7 +40922,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="834" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="834" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A834" t="s">
         <v>660</v>
       </c>
@@ -40796,7 +40963,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="835" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="835" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A835" t="s">
         <v>661</v>
       </c>
@@ -40837,7 +41004,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="836" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="836" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A836" t="s">
         <v>661</v>
       </c>
@@ -40878,7 +41045,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="837" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="837" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A837" t="s">
         <v>668</v>
       </c>
@@ -40919,7 +41086,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="838" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="838" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A838" t="s">
         <v>670</v>
       </c>
@@ -40960,7 +41127,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="839" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="839" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A839" t="s">
         <v>686</v>
       </c>
@@ -41000,8 +41167,11 @@
       <c r="M839" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="840" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N839" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="840" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A840" t="s">
         <v>688</v>
       </c>
@@ -41042,7 +41212,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="841" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="841" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A841" t="s">
         <v>690</v>
       </c>
@@ -41082,8 +41252,11 @@
       <c r="M841" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="842" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N841" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="842" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A842" t="s">
         <v>691</v>
       </c>
@@ -41123,8 +41296,11 @@
       <c r="M842" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="843" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N842" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="843" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A843" t="s">
         <v>706</v>
       </c>
@@ -41164,8 +41340,11 @@
       <c r="M843" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="844" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N843" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="844" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A844" t="s">
         <v>472</v>
       </c>
@@ -41205,8 +41384,11 @@
       <c r="M844" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="845" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N844" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="845" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A845" t="s">
         <v>707</v>
       </c>
@@ -41247,7 +41429,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="846" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="846" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A846" t="s">
         <v>578</v>
       </c>
@@ -41288,7 +41470,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="847" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="847" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A847" t="s">
         <v>715</v>
       </c>
@@ -41329,7 +41511,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="848" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="848" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A848" t="s">
         <v>716</v>
       </c>
@@ -41370,7 +41552,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="849" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="849" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A849" t="s">
         <v>718</v>
       </c>
@@ -41411,7 +41593,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="850" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="850" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A850" t="s">
         <v>718</v>
       </c>
@@ -41452,7 +41634,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="851" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="851" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A851" t="s">
         <v>721</v>
       </c>
@@ -41493,7 +41675,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="852" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="852" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A852" t="s">
         <v>727</v>
       </c>
@@ -41534,7 +41716,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="853" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="853" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A853" t="s">
         <v>49</v>
       </c>
@@ -41575,7 +41757,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="854" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="854" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A854" t="s">
         <v>731</v>
       </c>
@@ -41616,7 +41798,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="855" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="855" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A855" t="s">
         <v>733</v>
       </c>
@@ -41657,7 +41839,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="856" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="856" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A856" t="s">
         <v>736</v>
       </c>
@@ -41698,7 +41880,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="857" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="857" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A857" t="s">
         <v>741</v>
       </c>
@@ -41738,8 +41920,11 @@
       <c r="M857" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="858" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N857" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="858" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A858" t="s">
         <v>745</v>
       </c>
@@ -41780,7 +41965,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="859" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="859" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A859" t="s">
         <v>747</v>
       </c>
@@ -41821,7 +42006,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="860" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="860" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A860" t="s">
         <v>748</v>
       </c>
@@ -41862,7 +42047,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="861" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="861" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A861" t="s">
         <v>759</v>
       </c>
@@ -41902,8 +42087,11 @@
       <c r="M861" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="862" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N861" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="862" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A862" t="s">
         <v>761</v>
       </c>
@@ -41944,7 +42132,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="863" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="863" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A863" t="s">
         <v>763</v>
       </c>
@@ -41985,7 +42173,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="864" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="864" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A864" t="s">
         <v>764</v>
       </c>
@@ -42026,7 +42214,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="865" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="865" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A865" t="s">
         <v>774</v>
       </c>
@@ -42066,8 +42254,11 @@
       <c r="M865" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="866" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N865" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="866" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A866" t="s">
         <v>323</v>
       </c>
@@ -42107,8 +42298,11 @@
       <c r="M866" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="867" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N866" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="867" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A867" t="s">
         <v>783</v>
       </c>
@@ -42149,7 +42343,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="868" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="868" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A868" t="s">
         <v>790</v>
       </c>
@@ -42190,7 +42384,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="869" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="869" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A869" t="s">
         <v>791</v>
       </c>
@@ -42231,7 +42425,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="870" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="870" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A870" t="s">
         <v>793</v>
       </c>
@@ -42272,7 +42466,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="871" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="871" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A871" t="s">
         <v>794</v>
       </c>
@@ -42313,7 +42507,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="872" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="872" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A872" t="s">
         <v>798</v>
       </c>
@@ -42354,7 +42548,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="873" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="873" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A873" t="s">
         <v>801</v>
       </c>
@@ -42395,7 +42589,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="874" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="874" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A874" t="s">
         <v>803</v>
       </c>
@@ -42436,7 +42630,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="875" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="875" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A875" t="s">
         <v>805</v>
       </c>
@@ -42476,8 +42670,11 @@
       <c r="M875" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="876" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N875" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="876" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A876" t="s">
         <v>811</v>
       </c>
@@ -42517,8 +42714,11 @@
       <c r="M876" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="877" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N876" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="877" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A877" t="s">
         <v>818</v>
       </c>
@@ -42559,7 +42759,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="878" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="878" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A878" t="s">
         <v>819</v>
       </c>
@@ -42600,7 +42800,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="879" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="879" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A879" t="s">
         <v>824</v>
       </c>
@@ -42641,7 +42841,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="880" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="880" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A880" t="s">
         <v>828</v>
       </c>
@@ -42682,7 +42882,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="881" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="881" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A881" t="s">
         <v>829</v>
       </c>
@@ -42723,7 +42923,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="882" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="882" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A882" t="s">
         <v>830</v>
       </c>
@@ -42763,8 +42963,11 @@
       <c r="M882" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="883" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N882" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="883" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A883" t="s">
         <v>836</v>
       </c>
@@ -42805,7 +43008,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="884" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="884" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A884" t="s">
         <v>839</v>
       </c>
@@ -42845,8 +43048,11 @@
       <c r="M884" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="885" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N884" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="885" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A885" t="s">
         <v>841</v>
       </c>
@@ -42887,7 +43093,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="886" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="886" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A886" t="s">
         <v>842</v>
       </c>
@@ -42928,7 +43134,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="887" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="887" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A887" t="s">
         <v>843</v>
       </c>
@@ -42968,8 +43174,11 @@
       <c r="M887" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="888" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N887" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="888" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A888" t="s">
         <v>844</v>
       </c>
@@ -43010,7 +43219,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="889" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="889" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A889" t="s">
         <v>850</v>
       </c>
@@ -43051,7 +43260,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="890" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="890" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A890" t="s">
         <v>853</v>
       </c>
@@ -43092,7 +43301,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="891" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="891" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A891" t="s">
         <v>856</v>
       </c>
@@ -43132,8 +43341,11 @@
       <c r="M891" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="892" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N891" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="892" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A892" t="s">
         <v>864</v>
       </c>
@@ -43174,7 +43386,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="893" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="893" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A893" t="s">
         <v>871</v>
       </c>
@@ -43215,7 +43427,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="894" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="894" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A894" t="s">
         <v>897</v>
       </c>
@@ -43256,7 +43468,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="895" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="895" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A895" t="s">
         <v>899</v>
       </c>
@@ -43297,7 +43509,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="896" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="896" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A896" t="s">
         <v>904</v>
       </c>
@@ -43337,8 +43549,11 @@
       <c r="M896" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="897" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N896" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="897" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A897" t="s">
         <v>914</v>
       </c>
@@ -43379,7 +43594,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="898" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="898" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A898" t="s">
         <v>916</v>
       </c>
@@ -43420,7 +43635,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="899" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="899" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A899" t="s">
         <v>919</v>
       </c>
@@ -43461,7 +43676,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="900" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="900" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A900" t="s">
         <v>922</v>
       </c>
@@ -43502,7 +43717,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="901" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="901" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A901" t="s">
         <v>924</v>
       </c>
@@ -43543,7 +43758,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="902" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="902" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A902" t="s">
         <v>925</v>
       </c>
@@ -43584,7 +43799,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="903" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="903" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A903" t="s">
         <v>937</v>
       </c>
@@ -43625,7 +43840,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="904" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="904" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A904" t="s">
         <v>939</v>
       </c>
@@ -43666,7 +43881,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="905" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="905" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A905" t="s">
         <v>894</v>
       </c>
@@ -43707,7 +43922,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="906" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="906" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A906" t="s">
         <v>943</v>
       </c>
@@ -43747,8 +43962,11 @@
       <c r="M906" t="s">
         <v>944</v>
       </c>
-    </row>
-    <row r="907" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N906" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="907" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A907" t="s">
         <v>950</v>
       </c>
@@ -43789,7 +44007,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="908" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="908" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A908" t="s">
         <v>15</v>
       </c>
@@ -43830,7 +44048,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="909" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="909" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A909" t="s">
         <v>140</v>
       </c>
@@ -43871,7 +44089,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="910" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="910" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A910" t="s">
         <v>958</v>
       </c>
@@ -43912,7 +44130,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="911" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="911" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A911" t="s">
         <v>963</v>
       </c>
@@ -43953,7 +44171,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="912" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="912" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A912" t="s">
         <v>964</v>
       </c>
@@ -43994,7 +44212,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="913" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="913" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A913" t="s">
         <v>845</v>
       </c>
@@ -44035,7 +44253,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="914" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="914" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A914" t="s">
         <v>874</v>
       </c>
@@ -44075,8 +44293,11 @@
       <c r="M914" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="915" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N914" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="915" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A915" t="s">
         <v>874</v>
       </c>
@@ -44116,8 +44337,11 @@
       <c r="M915" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="916" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N915" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="916" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A916" t="s">
         <v>972</v>
       </c>
@@ -44158,7 +44382,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="917" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="917" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A917" t="s">
         <v>977</v>
       </c>
@@ -44199,7 +44423,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="918" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="918" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A918" t="s">
         <v>510</v>
       </c>
@@ -44240,7 +44464,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="919" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="919" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A919" t="s">
         <v>510</v>
       </c>
@@ -44281,7 +44505,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="920" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="920" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A920" t="s">
         <v>980</v>
       </c>
@@ -44321,8 +44545,11 @@
       <c r="M920" t="s">
         <v>980</v>
       </c>
-    </row>
-    <row r="921" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N920" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="921" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A921" t="s">
         <v>981</v>
       </c>
@@ -44362,8 +44589,11 @@
       <c r="M921" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="922" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N921" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="922" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A922" t="s">
         <v>986</v>
       </c>
@@ -44404,7 +44634,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="923" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="923" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A923" t="s">
         <v>987</v>
       </c>
@@ -44445,7 +44675,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="924" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="924" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A924" t="s">
         <v>988</v>
       </c>
@@ -44486,7 +44716,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="925" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="925" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A925" t="s">
         <v>989</v>
       </c>
@@ -44527,7 +44757,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="926" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="926" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A926" t="s">
         <v>998</v>
       </c>
@@ -44568,7 +44798,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="927" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="927" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A927" t="s">
         <v>482</v>
       </c>
@@ -44608,8 +44838,11 @@
       <c r="M927" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="928" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N927" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="928" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A928" t="s">
         <v>1002</v>
       </c>
@@ -44650,7 +44883,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="929" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="929" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A929" t="s">
         <v>1004</v>
       </c>
@@ -44690,8 +44923,11 @@
       <c r="M929" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="930" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N929" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="930" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A930" t="s">
         <v>1010</v>
       </c>
@@ -44732,7 +44968,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="931" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="931" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A931" t="s">
         <v>1011</v>
       </c>
@@ -44773,7 +45009,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="932" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="932" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A932" t="s">
         <v>992</v>
       </c>
@@ -44814,7 +45050,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="933" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="933" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A933" t="s">
         <v>1014</v>
       </c>
@@ -44855,7 +45091,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="934" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="934" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A934" t="s">
         <v>1016</v>
       </c>
@@ -44896,7 +45132,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="935" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="935" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A935" t="s">
         <v>1020</v>
       </c>
@@ -44937,7 +45173,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="936" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="936" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A936" t="s">
         <v>1020</v>
       </c>
@@ -44978,7 +45214,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="937" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="937" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A937" t="s">
         <v>1021</v>
       </c>
@@ -45019,7 +45255,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="938" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="938" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A938" t="s">
         <v>118</v>
       </c>
@@ -45060,7 +45296,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="939" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="939" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A939" t="s">
         <v>1025</v>
       </c>
@@ -45101,7 +45337,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="940" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="940" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A940" t="s">
         <v>1026</v>
       </c>
@@ -45142,7 +45378,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="941" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="941" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A941" t="s">
         <v>1027</v>
       </c>
@@ -45183,7 +45419,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="942" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="942" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A942" t="s">
         <v>1029</v>
       </c>
@@ -45224,7 +45460,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="943" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="943" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A943" t="s">
         <v>1031</v>
       </c>
@@ -45265,7 +45501,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="944" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="944" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A944" t="s">
         <v>1032</v>
       </c>
@@ -45306,7 +45542,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="945" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="945" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A945" t="s">
         <v>1034</v>
       </c>
@@ -45347,7 +45583,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="946" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="946" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A946" t="s">
         <v>1035</v>
       </c>
@@ -45387,8 +45623,11 @@
       <c r="M946" t="s">
         <v>1035</v>
       </c>
-    </row>
-    <row r="947" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N946" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="947" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A947" t="s">
         <v>108</v>
       </c>
@@ -45428,8 +45667,11 @@
       <c r="M947" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="948" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N947" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="948" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A948" t="s">
         <v>1039</v>
       </c>
@@ -45470,7 +45712,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="949" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="949" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A949" t="s">
         <v>1043</v>
       </c>
@@ -45511,7 +45753,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="950" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="950" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A950" t="s">
         <v>787</v>
       </c>
@@ -45552,7 +45794,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="951" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="951" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A951" t="s">
         <v>787</v>
       </c>
@@ -45593,7 +45835,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="952" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="952" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A952" t="s">
         <v>1046</v>
       </c>
@@ -45634,7 +45876,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="953" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="953" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A953" t="s">
         <v>1049</v>
       </c>
@@ -45675,7 +45917,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="954" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="954" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A954" t="s">
         <v>1057</v>
       </c>
@@ -45716,7 +45958,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="955" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="955" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A955" t="s">
         <v>1060</v>
       </c>
@@ -45757,7 +45999,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="956" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="956" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A956" t="s">
         <v>1063</v>
       </c>
@@ -45798,7 +46040,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="957" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="957" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A957" t="s">
         <v>1070</v>
       </c>
@@ -45839,7 +46081,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="958" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="958" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A958" t="s">
         <v>1072</v>
       </c>
@@ -45880,7 +46122,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="959" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="959" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A959" t="s">
         <v>1074</v>
       </c>
@@ -45921,7 +46163,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="960" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="960" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A960" t="s">
         <v>886</v>
       </c>
@@ -45962,7 +46204,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="961" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="961" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A961" t="s">
         <v>1081</v>
       </c>
@@ -46003,7 +46245,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="962" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="962" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A962" t="s">
         <v>1083</v>
       </c>
@@ -46043,8 +46285,11 @@
       <c r="M962" t="s">
         <v>1083</v>
       </c>
-    </row>
-    <row r="963" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N962" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="963" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A963" t="s">
         <v>1084</v>
       </c>
@@ -46085,7 +46330,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="964" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="964" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A964" t="s">
         <v>767</v>
       </c>
@@ -46126,7 +46371,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="965" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="965" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A965" t="s">
         <v>1090</v>
       </c>
@@ -46167,7 +46412,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="966" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="966" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A966" t="s">
         <v>1006</v>
       </c>
@@ -46208,7 +46453,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="967" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="967" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A967" t="s">
         <v>1101</v>
       </c>
@@ -46249,7 +46494,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="968" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="968" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A968" t="s">
         <v>1106</v>
       </c>
@@ -46289,8 +46534,11 @@
       <c r="M968" t="s">
         <v>1106</v>
       </c>
-    </row>
-    <row r="969" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N968" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="969" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A969" t="s">
         <v>1107</v>
       </c>
@@ -46331,7 +46579,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="970" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="970" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A970" t="s">
         <v>1108</v>
       </c>
@@ -46371,8 +46619,11 @@
       <c r="M970" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="971" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N970" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="971" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A971" t="s">
         <v>1110</v>
       </c>
@@ -46413,7 +46664,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="972" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="972" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A972" t="s">
         <v>80</v>
       </c>
@@ -46454,7 +46705,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="973" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="973" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A973" t="s">
         <v>1119</v>
       </c>
@@ -46494,8 +46745,11 @@
       <c r="M973" t="s">
         <v>1119</v>
       </c>
-    </row>
-    <row r="974" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N973" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="974" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A974" t="s">
         <v>1120</v>
       </c>
@@ -46536,7 +46790,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="975" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="975" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A975" t="s">
         <v>1099</v>
       </c>
@@ -46577,7 +46831,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="976" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="976" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A976" t="s">
         <v>1123</v>
       </c>
@@ -46617,8 +46871,11 @@
       <c r="M976" t="s">
         <v>1123</v>
       </c>
-    </row>
-    <row r="977" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N976" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="977" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A977" t="s">
         <v>1134</v>
       </c>
@@ -46658,8 +46915,11 @@
       <c r="M977" t="s">
         <v>1135</v>
       </c>
-    </row>
-    <row r="978" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N977" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="978" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A978" t="s">
         <v>1136</v>
       </c>
@@ -46700,7 +46960,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="979" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="979" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A979" t="s">
         <v>1141</v>
       </c>
@@ -46741,7 +47001,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="980" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="980" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A980" t="s">
         <v>1142</v>
       </c>
@@ -46781,8 +47041,11 @@
       <c r="M980" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="981" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N980" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="981" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A981" t="s">
         <v>1148</v>
       </c>
@@ -46822,8 +47085,11 @@
       <c r="M981" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="982" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N981" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="982" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A982" t="s">
         <v>1152</v>
       </c>
@@ -46863,8 +47129,11 @@
       <c r="M982" t="s">
         <v>1152</v>
       </c>
-    </row>
-    <row r="983" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N982" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="983" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A983" t="s">
         <v>1153</v>
       </c>
@@ -46905,7 +47174,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="984" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="984" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A984" t="s">
         <v>387</v>
       </c>
@@ -46945,8 +47214,11 @@
       <c r="M984" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="985" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N984" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="985" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A985" t="s">
         <v>1161</v>
       </c>
@@ -46986,8 +47258,11 @@
       <c r="M985" t="s">
         <v>1161</v>
       </c>
-    </row>
-    <row r="986" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N985" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="986" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A986" t="s">
         <v>362</v>
       </c>
@@ -47028,7 +47303,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="987" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="987" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A987" t="s">
         <v>815</v>
       </c>
@@ -47068,8 +47343,11 @@
       <c r="M987" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="988" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N987" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="988" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A988" t="s">
         <v>526</v>
       </c>
@@ -47110,7 +47388,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="989" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="989" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A989" t="s">
         <v>905</v>
       </c>
@@ -47150,8 +47428,11 @@
       <c r="M989" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="990" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N989" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="990" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A990" t="s">
         <v>1171</v>
       </c>
@@ -47192,7 +47473,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="991" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="991" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A991" t="s">
         <v>242</v>
       </c>
@@ -47233,7 +47514,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="992" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="992" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A992" t="s">
         <v>1181</v>
       </c>
@@ -47274,7 +47555,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="993" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="993" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A993" t="s">
         <v>1181</v>
       </c>
@@ -47315,7 +47596,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="994" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="994" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A994" t="s">
         <v>1186</v>
       </c>
@@ -47356,7 +47637,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="995" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="995" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A995" t="s">
         <v>1195</v>
       </c>
@@ -47396,8 +47677,11 @@
       <c r="M995" t="s">
         <v>1195</v>
       </c>
-    </row>
-    <row r="996" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N995" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="996" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A996" t="s">
         <v>1199</v>
       </c>
@@ -47438,7 +47722,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="997" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="997" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A997" t="s">
         <v>1200</v>
       </c>
@@ -47479,7 +47763,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="998" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="998" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A998" t="s">
         <v>154</v>
       </c>
@@ -47520,7 +47804,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="999" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="999" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A999" t="s">
         <v>1201</v>
       </c>
@@ -47560,8 +47844,11 @@
       <c r="M999" t="s">
         <v>1083</v>
       </c>
-    </row>
-    <row r="1000" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N999" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1000" t="s">
         <v>1207</v>
       </c>
@@ -47602,7 +47889,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="1001" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1001" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1001" t="s">
         <v>621</v>
       </c>
@@ -47643,7 +47930,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="1002" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1002" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1002" t="s">
         <v>965</v>
       </c>
@@ -47683,8 +47970,11 @@
       <c r="M1002" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="1003" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N1002" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1003" t="s">
         <v>1212</v>
       </c>
@@ -47725,7 +48015,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="1004" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1004" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1004" t="s">
         <v>1214</v>
       </c>
@@ -47765,8 +48055,11 @@
       <c r="M1004" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="1005" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N1004" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1005" t="s">
         <v>174</v>
       </c>
@@ -47807,7 +48100,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="1006" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1006" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1006" t="s">
         <v>1218</v>
       </c>
@@ -47847,8 +48140,11 @@
       <c r="M1006" t="s">
         <v>1218</v>
       </c>
-    </row>
-    <row r="1007" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N1006" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1007" t="s">
         <v>1219</v>
       </c>
@@ -47889,7 +48185,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="1008" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1008" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1008" t="s">
         <v>1225</v>
       </c>
@@ -47930,7 +48226,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="1009" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1009" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1009" t="s">
         <v>1227</v>
       </c>
@@ -47971,7 +48267,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="1010" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1010" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1010" t="s">
         <v>1053</v>
       </c>
@@ -48012,7 +48308,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="1011" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1011" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1011" t="s">
         <v>1233</v>
       </c>
@@ -48053,7 +48349,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="1012" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1012" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1012" t="s">
         <v>1237</v>
       </c>
@@ -48094,7 +48390,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="1013" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1013" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1013" t="s">
         <v>1239</v>
       </c>
@@ -48135,7 +48431,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="1014" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1014" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1014" t="s">
         <v>1241</v>
       </c>
@@ -48176,7 +48472,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="1015" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1015" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1015" t="s">
         <v>1247</v>
       </c>
@@ -48217,7 +48513,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="1016" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1016" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1016" t="s">
         <v>192</v>
       </c>
@@ -48257,8 +48553,11 @@
       <c r="M1016" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="1017" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N1016" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1017" t="s">
         <v>692</v>
       </c>
@@ -48298,8 +48597,11 @@
       <c r="M1017" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="1018" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N1017" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1018" t="s">
         <v>1254</v>
       </c>
@@ -48340,7 +48642,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="1019" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1019" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1019" t="s">
         <v>1256</v>
       </c>
@@ -48381,7 +48683,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="1020" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1020" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1020" t="s">
         <v>1257</v>
       </c>
@@ -48422,7 +48724,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="1021" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1021" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1021" t="s">
         <v>338</v>
       </c>
@@ -48463,7 +48765,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="1022" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1022" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1022" t="s">
         <v>1262</v>
       </c>
@@ -48504,7 +48806,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="1023" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1023" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1023" t="s">
         <v>1248</v>
       </c>
@@ -48545,7 +48847,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="1024" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1024" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1024" t="s">
         <v>1266</v>
       </c>
@@ -48586,7 +48888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1025" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1025" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1025" t="s">
         <v>544</v>
       </c>
@@ -48627,7 +48929,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="1026" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1026" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1026" t="s">
         <v>969</v>
       </c>
@@ -48668,7 +48970,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="1027" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1027" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1027" t="s">
         <v>1270</v>
       </c>
@@ -48709,7 +49011,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="1028" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1028" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1028" t="s">
         <v>1272</v>
       </c>
@@ -48749,8 +49051,11 @@
       <c r="M1028" t="s">
         <v>1083</v>
       </c>
-    </row>
-    <row r="1029" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N1028" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1029" t="s">
         <v>1274</v>
       </c>
@@ -48790,8 +49095,11 @@
       <c r="M1029" t="s">
         <v>1274</v>
       </c>
-    </row>
-    <row r="1030" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N1029" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1030" t="s">
         <v>167</v>
       </c>
@@ -48832,7 +49140,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="1031" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1031" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1031" t="s">
         <v>1280</v>
       </c>
@@ -48873,7 +49181,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="1032" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1032" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1032" t="s">
         <v>1282</v>
       </c>
@@ -48914,7 +49222,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="1033" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1033" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1033" t="s">
         <v>1286</v>
       </c>
@@ -48955,7 +49263,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="1034" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1034" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1034" t="s">
         <v>1293</v>
       </c>
@@ -48996,7 +49304,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="1035" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1035" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1035" t="s">
         <v>1296</v>
       </c>
@@ -49036,8 +49344,11 @@
       <c r="M1035" t="s">
         <v>1135</v>
       </c>
-    </row>
-    <row r="1036" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N1035" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1036" t="s">
         <v>1089</v>
       </c>
@@ -49078,7 +49389,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="1037" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1037" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1037" t="s">
         <v>1303</v>
       </c>
@@ -49119,7 +49430,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="1038" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1038" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1038" t="s">
         <v>1304</v>
       </c>
@@ -49160,7 +49471,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="1039" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1039" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1039" t="s">
         <v>1305</v>
       </c>
@@ -49201,7 +49512,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="1040" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1040" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1040" t="s">
         <v>1306</v>
       </c>
@@ -49241,8 +49552,11 @@
       <c r="M1040" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="1041" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N1040" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1041" t="s">
         <v>1309</v>
       </c>
@@ -49283,7 +49597,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="1042" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1042" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1042" t="s">
         <v>1310</v>
       </c>
@@ -49324,7 +49638,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="1043" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1043" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1043" t="s">
         <v>1314</v>
       </c>
@@ -49364,8 +49678,11 @@
       <c r="M1043" t="s">
         <v>1314</v>
       </c>
-    </row>
-    <row r="1044" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N1043" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1044" t="s">
         <v>1317</v>
       </c>
@@ -49405,8 +49722,11 @@
       <c r="M1044" t="s">
         <v>1317</v>
       </c>
-    </row>
-    <row r="1045" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N1044" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1045" t="s">
         <v>1318</v>
       </c>
@@ -49447,7 +49767,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="1046" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1046" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1046" t="s">
         <v>1329</v>
       </c>
@@ -49488,7 +49808,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="1047" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1047" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1047" t="s">
         <v>1334</v>
       </c>
@@ -49529,7 +49849,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="1048" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1048" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1048" t="s">
         <v>1336</v>
       </c>
@@ -49570,7 +49890,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="1049" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1049" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1049" t="s">
         <v>1338</v>
       </c>
@@ -49611,7 +49931,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="1050" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1050" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1050" t="s">
         <v>434</v>
       </c>
@@ -49651,8 +49971,11 @@
       <c r="M1050" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="1051" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N1050" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1051" t="s">
         <v>1351</v>
       </c>
@@ -49693,7 +50016,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="1052" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1052" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1052" t="s">
         <v>1357</v>
       </c>
@@ -49733,8 +50056,11 @@
       <c r="M1052" t="s">
         <v>1119</v>
       </c>
-    </row>
-    <row r="1053" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N1052" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1053" t="s">
         <v>166</v>
       </c>
@@ -49774,8 +50100,11 @@
       <c r="M1053" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="1054" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N1053" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1054" t="s">
         <v>1359</v>
       </c>
@@ -49815,8 +50144,11 @@
       <c r="M1054" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="1055" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N1054" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1055" t="s">
         <v>1360</v>
       </c>
@@ -49857,7 +50189,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="1056" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1056" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1056" t="s">
         <v>1362</v>
       </c>
@@ -49898,7 +50230,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="1057" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1057" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1057" t="s">
         <v>1364</v>
       </c>
@@ -49939,7 +50271,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="1058" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1058" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1058" t="s">
         <v>1364</v>
       </c>
@@ -49979,8 +50311,11 @@
       <c r="M1058" t="s">
         <v>1218</v>
       </c>
-    </row>
-    <row r="1059" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N1058" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1059" t="s">
         <v>1367</v>
       </c>
@@ -50021,7 +50356,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="1060" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1060" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1060" t="s">
         <v>734</v>
       </c>
@@ -50062,7 +50397,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="1061" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1061" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1061" t="s">
         <v>734</v>
       </c>
@@ -50103,7 +50438,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="1062" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1062" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1062" t="s">
         <v>1307</v>
       </c>
@@ -50144,7 +50479,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="1063" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1063" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1063" t="s">
         <v>1374</v>
       </c>
@@ -50185,7 +50520,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="1064" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1064" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1064" t="s">
         <v>1378</v>
       </c>
@@ -50226,7 +50561,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="1065" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1065" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1065" t="s">
         <v>1381</v>
       </c>
@@ -50266,8 +50601,11 @@
       <c r="M1065" t="s">
         <v>1381</v>
       </c>
-    </row>
-    <row r="1066" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N1065" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1066" t="s">
         <v>1386</v>
       </c>
@@ -50308,7 +50646,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="1067" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1067" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1067" t="s">
         <v>1389</v>
       </c>
@@ -50348,8 +50686,11 @@
       <c r="M1067" t="s">
         <v>1389</v>
       </c>
-    </row>
-    <row r="1068" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N1067" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1068" t="s">
         <v>1390</v>
       </c>
@@ -50390,7 +50731,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="1069" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1069" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1069" t="s">
         <v>1392</v>
       </c>
@@ -50431,7 +50772,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="1070" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1070" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1070" t="s">
         <v>1393</v>
       </c>
@@ -50472,7 +50813,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="1071" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1071" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1071" t="s">
         <v>1395</v>
       </c>
@@ -50512,8 +50853,11 @@
       <c r="M1071" t="s">
         <v>1396</v>
       </c>
-    </row>
-    <row r="1072" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N1071" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1072" t="s">
         <v>1397</v>
       </c>
